--- a/src/test/resources/testCamposNull.xlsx
+++ b/src/test/resources/testCamposNull.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Clase\ASW\Practicas\Proyecto\citizensLoader4a\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelay\IdeaProjects\citizensLoader4a\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,8 +160,36 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
